--- a/lib/exps/hartness_2023_jsr_n-butane.xlsx
+++ b/lib/exps/hartness_2023_jsr_n-butane.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/lib/exps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clayton_mulvihill/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE9FA3C-C7FD-FF4E-9951-4401B202BA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C04994-33D7-4C41-98B9-6FD06615D493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11800" yWindow="3160" windowWidth="24040" windowHeight="15880" xr2:uid="{78241C94-D908-5046-A03C-F98961F89C3E}"/>
+    <workbookView xWindow="2460" yWindow="8520" windowWidth="24040" windowHeight="15880" xr2:uid="{78241C94-D908-5046-A03C-F98961F89C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="71">
   <si>
     <t>num_exps</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>O[O]</t>
+  </si>
+  <si>
+    <t>2-butene</t>
+  </si>
+  <si>
+    <t>CC=CC</t>
   </si>
 </sst>
 </file>
@@ -652,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37EF7FA-3036-4343-BAB0-E3F2C1B3E0AA}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -779,7 +785,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="4">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -803,7 +809,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="4">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -817,7 +823,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="4">
-        <v>-25</v>
+        <v>-5</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -1012,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
+        <v>69</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1032,10 +1038,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1048,22 +1054,22 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26">
         <v>0</v>
       </c>
     </row>
@@ -1072,13 +1078,13 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D27" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="6">
         <v>0</v>
@@ -1092,10 +1098,10 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="6">
         <v>2</v>
@@ -1108,14 +1114,23 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>39</v>
+      <c r="A29" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1123,10 +1138,10 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1134,9 +1149,20 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>43</v>
       </c>
     </row>
